--- a/data/raw/vermont_raw_2024.xlsx
+++ b/data/raw/vermont_raw_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1828126691718/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{06972628-674E-784C-9F8C-D37624F2C693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B818ED7-49A1-F648-9ACB-14727819B0F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D2AAA-DE05-3F44-B11C-8F9B0F50EF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23660" yWindow="-27040" windowWidth="27260" windowHeight="16460" xr2:uid="{23DC1D47-66CE-2C40-9783-313253B8F3A4}"/>
+    <workbookView xWindow="23660" yWindow="-21000" windowWidth="27260" windowHeight="16460" xr2:uid="{23DC1D47-66CE-2C40-9783-313253B8F3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -337,7 +337,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE8952-E865-0642-A6FC-07BE149106C3}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,7 +738,7 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="P1" s="9" t="s">
@@ -789,8 +788,8 @@
       <c r="N2" s="10">
         <v>516.6</v>
       </c>
-      <c r="O2" s="6">
-        <v>26.6</v>
+      <c r="O2" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P2">
         <v>21.77</v>
@@ -839,8 +838,8 @@
       <c r="N3" s="6">
         <v>249.66</v>
       </c>
-      <c r="O3" s="6">
-        <v>36.4</v>
+      <c r="O3" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P3">
         <v>21.88</v>
@@ -889,8 +888,8 @@
       <c r="N4" s="6">
         <v>303.73</v>
       </c>
-      <c r="O4" s="6">
-        <v>26.3</v>
+      <c r="O4" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P4">
         <v>22.33</v>
@@ -939,8 +938,8 @@
       <c r="N5" s="10">
         <v>229.16</v>
       </c>
-      <c r="O5" s="6">
-        <v>37.200000000000003</v>
+      <c r="O5" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P5">
         <v>20.95</v>
@@ -989,8 +988,8 @@
       <c r="N6" s="6">
         <v>122.23</v>
       </c>
-      <c r="O6" s="6">
-        <v>22.3</v>
+      <c r="O6" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P6">
         <v>22.02</v>
@@ -1039,8 +1038,8 @@
       <c r="N7" s="10">
         <v>434.76</v>
       </c>
-      <c r="O7" s="6">
-        <v>26.4</v>
+      <c r="O7" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P7">
         <v>22.98</v>
@@ -1089,8 +1088,8 @@
       <c r="N8" s="6">
         <v>184.98</v>
       </c>
-      <c r="O8" s="6">
-        <v>15.6</v>
+      <c r="O8" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P8">
         <v>23.23</v>
@@ -1139,8 +1138,8 @@
       <c r="N9" s="10">
         <v>346.91</v>
       </c>
-      <c r="O9" s="6">
-        <v>27.9</v>
+      <c r="O9" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P9">
         <v>22.34</v>
@@ -1189,8 +1188,8 @@
       <c r="N10" s="6">
         <v>73.08</v>
       </c>
-      <c r="O10" s="6">
-        <v>37.200000000000003</v>
+      <c r="O10" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P10">
         <v>24.52</v>
@@ -1239,8 +1238,8 @@
       <c r="N11" s="10">
         <v>317.42</v>
       </c>
-      <c r="O11" s="6">
-        <v>30.7</v>
+      <c r="O11" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P11">
         <v>23.32</v>
@@ -1289,8 +1288,8 @@
       <c r="N12" s="6">
         <v>46.82</v>
       </c>
-      <c r="O12" s="6">
-        <v>18.899999999999999</v>
+      <c r="O12" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P12">
         <v>23.22</v>
@@ -1339,8 +1338,8 @@
       <c r="N13" s="10">
         <v>358.74</v>
       </c>
-      <c r="O13" s="6">
-        <v>26.8</v>
+      <c r="O13" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P13">
         <v>22.53</v>
@@ -1389,8 +1388,8 @@
       <c r="N14" s="6">
         <v>105.91</v>
       </c>
-      <c r="O14" s="6">
-        <v>19.5</v>
+      <c r="O14" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P14">
         <v>22.7</v>
@@ -1439,8 +1438,8 @@
       <c r="N15" s="10">
         <v>299.52</v>
       </c>
-      <c r="O15" s="6">
-        <v>34.700000000000003</v>
+      <c r="O15" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P15">
         <v>23.53</v>
@@ -1489,8 +1488,8 @@
       <c r="N16" s="6">
         <v>183.89</v>
       </c>
-      <c r="O16" s="6">
-        <v>26.3</v>
+      <c r="O16" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P16">
         <v>24.94</v>
@@ -1539,8 +1538,8 @@
       <c r="N17" s="10">
         <v>657.68</v>
       </c>
-      <c r="O17" s="6">
-        <v>32.9</v>
+      <c r="O17" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P17">
         <v>22.03</v>
@@ -1589,8 +1588,8 @@
       <c r="N18" s="6">
         <v>78.89</v>
       </c>
-      <c r="O18" s="6">
-        <v>31.4</v>
+      <c r="O18" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P18">
         <v>24.04</v>
@@ -1639,8 +1638,8 @@
       <c r="N19" s="6">
         <v>353.35</v>
       </c>
-      <c r="O19" s="6">
-        <v>24.4</v>
+      <c r="O19" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P19">
         <v>22.1</v>
@@ -1689,8 +1688,8 @@
       <c r="N20" s="10">
         <v>406.15</v>
       </c>
-      <c r="O20" s="6">
-        <v>26</v>
+      <c r="O20" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P20">
         <v>23.34</v>
@@ -1739,8 +1738,8 @@
       <c r="N21" s="6">
         <v>282.70999999999998</v>
       </c>
-      <c r="O21" s="6">
-        <v>34.6</v>
+      <c r="O21" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P21">
         <v>25.46</v>
@@ -1789,8 +1788,8 @@
       <c r="N22" s="10">
         <v>461.35</v>
       </c>
-      <c r="O22" s="6">
-        <v>21.4</v>
+      <c r="O22" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P22">
         <v>23.14</v>
@@ -1839,8 +1838,8 @@
       <c r="N23" s="6">
         <v>179.12</v>
       </c>
-      <c r="O23" s="6">
-        <v>22.3</v>
+      <c r="O23" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P23">
         <v>24.2</v>
@@ -1889,8 +1888,8 @@
       <c r="N24" s="6">
         <v>483.93</v>
       </c>
-      <c r="O24" s="6">
-        <v>25</v>
+      <c r="O24" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P24">
         <v>23.2</v>
@@ -1939,8 +1938,8 @@
       <c r="N25" s="10">
         <v>452.46</v>
       </c>
-      <c r="O25" s="6">
-        <v>30.4</v>
+      <c r="O25" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P25">
         <v>24.46</v>
@@ -1989,8 +1988,8 @@
       <c r="N26" s="6">
         <v>268.67</v>
       </c>
-      <c r="O26" s="6">
-        <v>32.4</v>
+      <c r="O26" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P26">
         <v>25.18</v>
@@ -2039,8 +2038,8 @@
       <c r="N27" s="10">
         <v>445.63</v>
       </c>
-      <c r="O27" s="6">
-        <v>29.4</v>
+      <c r="O27" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P27">
         <v>23.17</v>
@@ -2089,8 +2088,8 @@
       <c r="N28" s="6">
         <v>337.3</v>
       </c>
-      <c r="O28" s="6">
-        <v>32.5</v>
+      <c r="O28" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P28">
         <v>26.14</v>
@@ -2139,8 +2138,8 @@
       <c r="N29" s="10">
         <v>570.38</v>
       </c>
-      <c r="O29" s="6">
-        <v>26.3</v>
+      <c r="O29" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P29">
         <v>23.7</v>
@@ -2189,8 +2188,8 @@
       <c r="N30" s="6">
         <v>355.77</v>
       </c>
-      <c r="O30" s="6">
-        <v>29.5</v>
+      <c r="O30" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P30">
         <v>24.61</v>
@@ -2239,8 +2238,8 @@
       <c r="N31" s="10">
         <v>653.65</v>
       </c>
-      <c r="O31" s="6">
-        <v>31.9</v>
+      <c r="O31" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P31">
         <v>22.01</v>
@@ -2289,8 +2288,8 @@
       <c r="N32" s="6">
         <v>224.87</v>
       </c>
-      <c r="O32" s="6">
-        <v>34.700000000000003</v>
+      <c r="O32" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P32">
         <v>24.34</v>
@@ -2339,8 +2338,8 @@
       <c r="N33" s="10">
         <v>394.98</v>
       </c>
-      <c r="O33" s="6">
-        <v>30.3</v>
+      <c r="O33" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P33">
         <v>23.78</v>
@@ -2389,8 +2388,8 @@
       <c r="N34" s="6">
         <v>293.10000000000002</v>
       </c>
-      <c r="O34" s="6">
-        <v>33.200000000000003</v>
+      <c r="O34" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P34">
         <v>24.19</v>
@@ -2439,8 +2438,8 @@
       <c r="N35" s="10">
         <v>556.39</v>
       </c>
-      <c r="O35" s="6">
-        <v>28.3</v>
+      <c r="O35" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P35">
         <v>23.59</v>
@@ -2489,8 +2488,8 @@
       <c r="N36" s="6">
         <v>281.31</v>
       </c>
-      <c r="O36" s="6">
-        <v>33.799999999999997</v>
+      <c r="O36" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P36">
         <v>23.78</v>
@@ -2539,8 +2538,8 @@
       <c r="N37" s="6">
         <v>492.85</v>
       </c>
-      <c r="O37" s="6">
-        <v>29.7</v>
+      <c r="O37" s="7">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P37">
         <v>24.54</v>
